--- a/7Tyden.xlsx
+++ b/7Tyden.xlsx
@@ -162,7 +162,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -179,6 +179,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normální" xfId="0" builtinId="0"/>
@@ -462,16 +466,16 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="48" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -512,13 +516,13 @@
       <c r="B3" s="5">
         <v>25</v>
       </c>
-      <c r="C3" s="5">
-        <f t="shared" ref="C3:C4" si="0">(1/(0.0012*632))*(SIN(22.2-A3)-SIN(22.2+A3))</f>
-        <v>-2.3362338444103714</v>
-      </c>
-      <c r="D3">
-        <f t="shared" ref="D3:D4" si="1">(1/(0.0012*632))*(SIN(22.2+B3)-SIN(22.2-B3))</f>
-        <v>0.34144437512862702</v>
+      <c r="C3" s="6">
+        <f>(1/(0.0012*632))*(SIN(RADIANS(22.2-A3))-SIN(RADIANS(22.2+A3)))</f>
+        <v>-0.99310520461035134</v>
+      </c>
+      <c r="D3" s="7">
+        <f>(1/(0.0012*632))*(SIN(RADIANS(22.2+B3))-SIN(RADIANS(22.2-B3)))</f>
+        <v>1.0318824291910464</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -528,13 +532,13 @@
       <c r="B4" s="5">
         <v>57</v>
       </c>
-      <c r="C4" s="5">
-        <f t="shared" si="0"/>
-        <v>-1.441578048442242</v>
-      </c>
-      <c r="D4">
-        <f t="shared" si="1"/>
-        <v>-1.1252288103384278</v>
+      <c r="C4" s="6">
+        <f>(1/(0.0012*632))*(SIN(RADIANS(22.2-A4))-SIN(RADIANS(22.2+A4)))</f>
+        <v>-1.975329740778367</v>
+      </c>
+      <c r="D4" s="7">
+        <f>(1/(0.0012*632))*(SIN(RADIANS(22.2+B4))-SIN(RADIANS(22.2-B4)))</f>
+        <v>2.0477331466417725</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -575,13 +579,13 @@
       <c r="B8" s="5">
         <v>34</v>
       </c>
-      <c r="C8" s="5">
-        <f t="shared" ref="C8" si="2">(1/(0.0012*632))*(SIN(22.2-A8)-SIN(22.2+A8))</f>
-        <v>2.5795977764239488</v>
-      </c>
-      <c r="D8">
-        <f t="shared" ref="D8" si="3">(1/(0.0012*632))*(SIN(22.2+B8)-SIN(22.2-B8))</f>
-        <v>-1.3649408263976448</v>
+      <c r="C8" s="6">
+        <f>(1/(0.0012*850))*(SIN(RADIANS(22.2-A8))-SIN(RADIANS(22.2+A8)))</f>
+        <v>-0.98875541541120449</v>
+      </c>
+      <c r="D8" s="7">
+        <f>(1/(0.0012*850))*(SIN(RADIANS(22.2+B8))-SIN(RADIANS(22.2-B8)))</f>
+        <v>1.0151769814863909</v>
       </c>
     </row>
   </sheetData>
